--- a/visual.xlsx
+++ b/visual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quynh\Documents\GitHub\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B44E5-1D2A-4C3D-980E-3385D7BFBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A267A-3E7B-4927-9D9D-B9EF856A2459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2400" windowWidth="21600" windowHeight="15590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="1630" windowWidth="26560" windowHeight="15590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>hãng</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>thực hiện thống kê mô tả giá các sản phẩm theo danh mục/brand từng ngày(tuần,tháng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tỉ lệ sản phẩm dành cho nam/nữ/cả hai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nơi sản xuất , xuất xứ thương hiệu,.. ( check thêm trong folder thong_so) </t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +439,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
